--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43365,6 +43365,41 @@
         <v>3686600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>16198700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43400,6 +43400,41 @@
         <v>16198700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>40859900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43435,6 +43435,41 @@
         <v>40859900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7219</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MINETEC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>34074800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43470,6 +43470,41 @@
         <v>34074800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>43014000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43505,6 +43505,41 @@
         <v>43014000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>18575000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43540,6 +43540,41 @@
         <v>18575000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>17881100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43575,6 +43575,41 @@
         <v>17881100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>6473700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43610,6 +43610,41 @@
         <v>6473700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5840200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43645,6 +43645,41 @@
         <v>5840200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>6526100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43680,6 +43680,41 @@
         <v>6526100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>12629400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43715,6 +43715,41 @@
         <v>12629400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>5637700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43750,6 +43750,41 @@
         <v>5637700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>6821300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43785,6 +43785,76 @@
         <v>6821300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>5609100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3321700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43855,6 +43855,76 @@
         <v>3321700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1485300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5031300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43925,6 +43925,41 @@
         <v>5031300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1133500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43960,6 +43960,41 @@
         <v>1133500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>890100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43995,6 +43995,41 @@
         <v>890100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1080100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44030,6 +44030,41 @@
         <v>1080100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3501100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44065,6 +44065,76 @@
         <v>3501100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1803900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1457600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44135,6 +44135,41 @@
         <v>1457600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1746100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44170,6 +44170,41 @@
         <v>1746100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1189600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2637"/>
+  <dimension ref="A1:I2638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93065,6 +93065,41 @@
         <v>1189600</v>
       </c>
     </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2638" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2638" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2638" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2638" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2638" t="n">
+        <v>1667700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2638"/>
+  <dimension ref="A1:I2639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93100,6 +93100,41 @@
         <v>1667700</v>
       </c>
     </row>
+    <row r="2639">
+      <c r="A2639" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2639" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2639" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2639" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2639" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2639" t="n">
+        <v>2063800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2639"/>
+  <dimension ref="A1:I2640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93135,6 +93135,41 @@
         <v>2063800</v>
       </c>
     </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2640" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2640" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2640" t="n">
+        <v>1254000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2640"/>
+  <dimension ref="A1:I2641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93170,6 +93170,41 @@
         <v>1254000</v>
       </c>
     </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2641" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2641" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2641" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2641" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2641" t="n">
+        <v>2669700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2641"/>
+  <dimension ref="A1:I2642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93205,6 +93205,41 @@
         <v>2669700</v>
       </c>
     </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2642" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2642" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2642" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2642" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2642" t="n">
+        <v>3392900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2642"/>
+  <dimension ref="A1:I2643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93240,6 +93240,41 @@
         <v>3392900</v>
       </c>
     </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2643" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2643" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2643" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2643" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2643" t="n">
+        <v>724500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2643"/>
+  <dimension ref="A1:I2644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93275,6 +93275,41 @@
         <v>724500</v>
       </c>
     </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2644" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2644" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2644" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2644" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2644" t="n">
+        <v>890700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2644"/>
+  <dimension ref="A1:I2645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93310,6 +93310,41 @@
         <v>890700</v>
       </c>
     </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2645" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2645" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2645" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2645" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2645" t="n">
+        <v>7249600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2645"/>
+  <dimension ref="A1:I2646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93345,6 +93345,41 @@
         <v>7249600</v>
       </c>
     </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2646" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2646" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2646" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2646" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2646" t="n">
+        <v>1760900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2646"/>
+  <dimension ref="A1:I2647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93380,6 +93380,41 @@
         <v>1760900</v>
       </c>
     </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2647" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2647" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2647" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2647" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2647" t="n">
+        <v>2843900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2647"/>
+  <dimension ref="A1:I2648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93415,6 +93415,41 @@
         <v>2843900</v>
       </c>
     </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2648" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2648" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2648" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2648" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2648" t="n">
+        <v>379900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2648"/>
+  <dimension ref="A1:I2649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93450,6 +93450,41 @@
         <v>379900</v>
       </c>
     </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2649" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2649" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2649" t="n">
+        <v>1754200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2649"/>
+  <dimension ref="A1:I2650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93485,6 +93485,41 @@
         <v>1754200</v>
       </c>
     </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2650" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2650" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2650" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2650" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2650" t="n">
+        <v>3162000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93520,6 +93520,41 @@
         <v>3162000</v>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2651" t="n">
+        <v>4567500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93555,6 +93555,41 @@
         <v>4567500</v>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2652" t="n">
+        <v>1159700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2796"/>
+  <dimension ref="A1:I2797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98630,6 +98630,41 @@
         <v>1159700</v>
       </c>
     </row>
+    <row r="2797">
+      <c r="A2797" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2797" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2797" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2797" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2797" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2797" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2797" t="n">
+        <v>4899500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2797"/>
+  <dimension ref="A1:I2798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98665,6 +98665,41 @@
         <v>4899500</v>
       </c>
     </row>
+    <row r="2798">
+      <c r="A2798" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2798" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2798" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2798" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2798" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2798" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2798" t="n">
+        <v>3510900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2798"/>
+  <dimension ref="A1:I2799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98700,6 +98700,41 @@
         <v>3510900</v>
       </c>
     </row>
+    <row r="2799">
+      <c r="A2799" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2799" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2799" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2799" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2799" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2799" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2799" t="n">
+        <v>3460800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2799"/>
+  <dimension ref="A1:I2800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98735,6 +98735,41 @@
         <v>3460800</v>
       </c>
     </row>
+    <row r="2800">
+      <c r="A2800" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2800" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2800" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2800" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2800" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2800" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2800" t="n">
+        <v>2663100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2800"/>
+  <dimension ref="A1:I2801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98770,6 +98770,41 @@
         <v>2663100</v>
       </c>
     </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2801" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2801" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2801" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2801" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2801" t="n">
+        <v>1204200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2801"/>
+  <dimension ref="A1:I2802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98805,6 +98805,41 @@
         <v>1204200</v>
       </c>
     </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2802" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2802" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2802" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2802" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2802" t="n">
+        <v>2715700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2802"/>
+  <dimension ref="A1:I2803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98840,6 +98840,41 @@
         <v>2715700</v>
       </c>
     </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2803" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2803" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2803" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2803" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2803" t="n">
+        <v>2085900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2803"/>
+  <dimension ref="A1:I2804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98875,6 +98875,41 @@
         <v>2085900</v>
       </c>
     </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2804" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2804" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2804" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2804" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2804" t="n">
+        <v>1486800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2804"/>
+  <dimension ref="A1:I2805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98910,6 +98910,41 @@
         <v>1486800</v>
       </c>
     </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2805" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2805" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2805" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2805" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2805" t="n">
+        <v>2408500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2805"/>
+  <dimension ref="A1:I2806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98945,6 +98945,41 @@
         <v>2408500</v>
       </c>
     </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2806" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2806" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2806" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2806" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2806" t="n">
+        <v>5726600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2806"/>
+  <dimension ref="A1:I2808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98980,6 +98980,76 @@
         <v>5726600</v>
       </c>
     </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2807" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2807" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2807" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2807" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2807" t="n">
+        <v>8054500</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2808" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2808" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2808" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2808" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2808" t="n">
+        <v>2650800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2808"/>
+  <dimension ref="A1:I2809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99050,6 +99050,41 @@
         <v>2650800</v>
       </c>
     </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2809" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2809" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2809" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2809" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2809" t="n">
+        <v>2431700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2809"/>
+  <dimension ref="A1:I2812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99085,6 +99085,111 @@
         <v>2431700</v>
       </c>
     </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2810" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2810" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2810" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2810" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2810" t="n">
+        <v>1299000</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2811" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2811" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2811" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2811" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2811" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2811" t="n">
+        <v>691200</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2812" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2812" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2812" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2812" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2812" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2812" t="n">
+        <v>1509500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2812"/>
+  <dimension ref="A1:I2813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99190,6 +99190,41 @@
         <v>1509500</v>
       </c>
     </row>
+    <row r="2813">
+      <c r="A2813" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2813" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2813" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2813" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2813" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2813" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2813" t="n">
+        <v>875900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2813"/>
+  <dimension ref="A1:I2814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99225,6 +99225,41 @@
         <v>875900</v>
       </c>
     </row>
+    <row r="2814">
+      <c r="A2814" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2814" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2814" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2814" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2814" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2814" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2814" t="n">
+        <v>4193700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5145.xlsx
+++ b/data/5145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2814"/>
+  <dimension ref="A1:I2817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99260,6 +99260,111 @@
         <v>4193700</v>
       </c>
     </row>
+    <row r="2815">
+      <c r="A2815" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2815" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2815" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2815" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2815" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2815" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2815" t="n">
+        <v>1040600</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2816" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2816" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2816" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2816" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2816" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2816" t="n">
+        <v>714800</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="D2817" t="inlineStr">
+        <is>
+          <t>SEALINK</t>
+        </is>
+      </c>
+      <c r="E2817" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2817" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2817" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2817" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2817" t="n">
+        <v>5337800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
